--- a/Excel Functions 2.xlsx
+++ b/Excel Functions 2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,9 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t xml:space="preserve">Named Range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Round</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoundUp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RoundDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index and match – Alt to Vlookup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dynamic List</t>
   </si>
   <si>
     <t xml:space="preserve">Column A</t>
@@ -311,7 +332,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -409,11 +430,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="7091016"/>
-        <c:axId val="83606398"/>
+        <c:axId val="39779157"/>
+        <c:axId val="16225737"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="7091016"/>
+        <c:axId val="39779157"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -441,7 +462,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="83606398"/>
+        <c:crossAx val="16225737"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -449,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83606398"/>
+        <c:axId val="16225737"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -486,7 +507,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7091016"/>
+        <c:crossAx val="39779157"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -534,7 +555,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -822,21 +843,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.22"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,4.9)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -844,11 +869,19 @@
         <f aca="false">RANDBETWEEN(0,5)</f>
         <v>5</v>
       </c>
+      <c r="C2" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -856,23 +889,39 @@
         <f aca="false">RANDBETWEEN(0,5)</f>
         <v>5</v>
       </c>
+      <c r="C4" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,17 +929,29 @@
         <f aca="false">RANDBETWEEN(0,5)</f>
         <v>5</v>
       </c>
+      <c r="C8" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <f aca="false">RANDBETWEEN(0,5)</f>
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <f aca="false">RANDBETWEEN(0,5)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,7 +960,58 @@
       </c>
       <c r="B13" s="0" t="n">
         <f aca="false">SUM(Mynumbers)</f>
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <f aca="false">ROUND(0.7,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <f aca="false">ROUNDUP(0.7,0)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <f aca="false">ROUNDDOWN(0.7,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <f aca="false">INDEX(A1:A10,5,1)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -923,7 +1035,7 @@
   </sheetPr>
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -931,10 +1043,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -971,7 +1083,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>24</v>
